--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rushilmital/Documents/IITD-Acads/btp2/PorousBurner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4832F463-B152-224B-A1EE-343B4CCF0C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1590D43B-1E90-224A-938C-603CE6A1E5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{621AF252-9B7C-6646-A2F5-D4B611CC52A8}"/>
   </bookViews>
@@ -21734,8 +21734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63536C6-A424-F545-9B44-02A99415D658}">
   <dimension ref="A1:C744"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
-      <selection activeCell="B755" sqref="B755"/>
+    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
+      <selection activeCell="F585" sqref="F585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21747,11 +21747,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -27870,8 +27867,8 @@
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A559" s="1" t="s">
-        <v>7</v>
+      <c r="B559" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
